--- a/Sprint Planning.xlsx
+++ b/Sprint Planning.xlsx
@@ -15,7 +15,11 @@
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
     <sheet name="Epics" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="5" r:id="rId3"/>
+    <sheet name="Task List" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Task List'!$A$1:$F$167</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="327">
   <si>
     <t>GBC PORTAL</t>
   </si>
@@ -343,27 +347,6 @@
     <t>Sreedhar</t>
   </si>
   <si>
-    <t>Screen Design</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Code Review</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Acceptance</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
@@ -388,9 +371,6 @@
     <t>Filter Asset List</t>
   </si>
   <si>
-    <t>Data Migration</t>
-  </si>
-  <si>
     <t>GP</t>
   </si>
   <si>
@@ -413,6 +393,624 @@
   </si>
   <si>
     <t>Training on Grails</t>
+  </si>
+  <si>
+    <t>JNVD / SS</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Screen Design for Edit Sadhana Points</t>
+  </si>
+  <si>
+    <t>Coding for Edit Sadhana Points</t>
+  </si>
+  <si>
+    <t>Code Review for Edit Sadhana Points</t>
+  </si>
+  <si>
+    <t>Testing for Edit Sadhana Points</t>
+  </si>
+  <si>
+    <t>Acceptance for Edit Sadhana Points</t>
+  </si>
+  <si>
+    <t>Screen Design for Edit Sadhana Excuse</t>
+  </si>
+  <si>
+    <t>Coding for Edit Sadhana Excuse</t>
+  </si>
+  <si>
+    <t>Code Review for Edit Sadhana Excuse</t>
+  </si>
+  <si>
+    <t>Testing for Edit Sadhana Excuse</t>
+  </si>
+  <si>
+    <t>Acceptance for Edit Sadhana Excuse</t>
+  </si>
+  <si>
+    <t>Screen Design for Override Sadhana Points</t>
+  </si>
+  <si>
+    <t>Coding for Override Sadhana Points</t>
+  </si>
+  <si>
+    <t>Code Review for Override Sadhana Points</t>
+  </si>
+  <si>
+    <t>Testing for Override Sadhana Points</t>
+  </si>
+  <si>
+    <t>Acceptance for Override Sadhana Points</t>
+  </si>
+  <si>
+    <t>Screen Design for View Sadhana Points</t>
+  </si>
+  <si>
+    <t>Coding for View Sadhana Points</t>
+  </si>
+  <si>
+    <t>Code Review for View Sadhana Points</t>
+  </si>
+  <si>
+    <t>Testing for View Sadhana Points</t>
+  </si>
+  <si>
+    <t>Acceptance for View Sadhana Points</t>
+  </si>
+  <si>
+    <t>Screen Design for Export Sadhana Details</t>
+  </si>
+  <si>
+    <t>Coding for Export Sadhana Details</t>
+  </si>
+  <si>
+    <t>Code Review for Export Sadhana Details</t>
+  </si>
+  <si>
+    <t>Testing for Export Sadhana Details</t>
+  </si>
+  <si>
+    <t>Acceptance for Export Sadhana Details</t>
+  </si>
+  <si>
+    <t>Screen Design for Login to Sadhana Module</t>
+  </si>
+  <si>
+    <t>Coding for Login to Sadhana Module</t>
+  </si>
+  <si>
+    <t>Code Review for Login to Sadhana Module</t>
+  </si>
+  <si>
+    <t>Testing for Login to Sadhana Module</t>
+  </si>
+  <si>
+    <t>Acceptance for Login to Sadhana Module</t>
+  </si>
+  <si>
+    <t>Migration for Sadhana Data</t>
+  </si>
+  <si>
+    <t>Screen Design for Display stock</t>
+  </si>
+  <si>
+    <t>Coding for Display stock</t>
+  </si>
+  <si>
+    <t>Code Review for Display stock</t>
+  </si>
+  <si>
+    <t>Testing for Display stock</t>
+  </si>
+  <si>
+    <t>Acceptance for Display stock</t>
+  </si>
+  <si>
+    <t>Screen Design for Issue Item</t>
+  </si>
+  <si>
+    <t>Coding for Issue Item</t>
+  </si>
+  <si>
+    <t>Code Review for Issue Item</t>
+  </si>
+  <si>
+    <t>Testing for Issue Item</t>
+  </si>
+  <si>
+    <t>Acceptance for Issue Item</t>
+  </si>
+  <si>
+    <t>Screen Design for Handle Item Returns</t>
+  </si>
+  <si>
+    <t>Coding for Handle Item Returns</t>
+  </si>
+  <si>
+    <t>Code Review for Handle Item Returns</t>
+  </si>
+  <si>
+    <t>Testing for Handle Item Returns</t>
+  </si>
+  <si>
+    <t>Acceptance for Handle Item Returns</t>
+  </si>
+  <si>
+    <t>Screen Design for Receive Item</t>
+  </si>
+  <si>
+    <t>Coding for Receive Item</t>
+  </si>
+  <si>
+    <t>Code Review for Receive Item</t>
+  </si>
+  <si>
+    <t>Testing for Receive Item</t>
+  </si>
+  <si>
+    <t>Acceptance for Receive Item</t>
+  </si>
+  <si>
+    <t>Screen Design for View Invoice</t>
+  </si>
+  <si>
+    <t>Coding for View Invoice</t>
+  </si>
+  <si>
+    <t>Code Review for View Invoice</t>
+  </si>
+  <si>
+    <t>Testing for View Invoice</t>
+  </si>
+  <si>
+    <t>Acceptance for View Invoice</t>
+  </si>
+  <si>
+    <t>Screen Design for Approve Vendor</t>
+  </si>
+  <si>
+    <t>Coding for Approve Vendor</t>
+  </si>
+  <si>
+    <t>Code Review for Approve Vendor</t>
+  </si>
+  <si>
+    <t>Testing for Approve Vendor</t>
+  </si>
+  <si>
+    <t>Acceptance for Approve Vendor</t>
+  </si>
+  <si>
+    <t>Screen Design for Reject Vendor</t>
+  </si>
+  <si>
+    <t>Coding for Reject Vendor</t>
+  </si>
+  <si>
+    <t>Code Review for Reject Vendor</t>
+  </si>
+  <si>
+    <t>Testing for Reject Vendor</t>
+  </si>
+  <si>
+    <t>Acceptance for Reject Vendor</t>
+  </si>
+  <si>
+    <t>Screen Design for Deactivate Vendor Contact</t>
+  </si>
+  <si>
+    <t>Coding for Deactivate Vendor Contact</t>
+  </si>
+  <si>
+    <t>Code Review for Deactivate Vendor Contact</t>
+  </si>
+  <si>
+    <t>Testing for Deactivate Vendor Contact</t>
+  </si>
+  <si>
+    <t>Acceptance for Deactivate Vendor Contact</t>
+  </si>
+  <si>
+    <t>Data Migration for View Application Users List</t>
+  </si>
+  <si>
+    <t>Screen Design for View Application Users List</t>
+  </si>
+  <si>
+    <t>Coding for View Application Users List</t>
+  </si>
+  <si>
+    <t>Code Review for View Application Users List</t>
+  </si>
+  <si>
+    <t>Testing for View Application Users List</t>
+  </si>
+  <si>
+    <t>Acceptance for View Application Users List</t>
+  </si>
+  <si>
+    <t>Screen Design for Add an Asset</t>
+  </si>
+  <si>
+    <t>Coding for Add an Asset</t>
+  </si>
+  <si>
+    <t>Code Review for Add an Asset</t>
+  </si>
+  <si>
+    <t>Testing for Add an Asset</t>
+  </si>
+  <si>
+    <t>Acceptance for Add an Asset</t>
+  </si>
+  <si>
+    <t>Screen Design for Edit Asset Details</t>
+  </si>
+  <si>
+    <t>Coding for Edit Asset Details</t>
+  </si>
+  <si>
+    <t>Code Review for Edit Asset Details</t>
+  </si>
+  <si>
+    <t>Testing for Edit Asset Details</t>
+  </si>
+  <si>
+    <t>Acceptance for Edit Asset Details</t>
+  </si>
+  <si>
+    <t>Screen Design for Filter Asset List</t>
+  </si>
+  <si>
+    <t>Coding for Filter Asset List</t>
+  </si>
+  <si>
+    <t>Code Review for Filter Asset List</t>
+  </si>
+  <si>
+    <t>Testing for Filter Asset List</t>
+  </si>
+  <si>
+    <t>Acceptance for Filter Asset List</t>
+  </si>
+  <si>
+    <t>Screen Design for Raise a Ticket</t>
+  </si>
+  <si>
+    <t>Coding for Raise a Ticket</t>
+  </si>
+  <si>
+    <t>Code Review for Raise a Ticket</t>
+  </si>
+  <si>
+    <t>Testing for Raise a Ticket</t>
+  </si>
+  <si>
+    <t>Acceptance for Raise a Ticket</t>
+  </si>
+  <si>
+    <t>Screen Design for Categorize a Ticket</t>
+  </si>
+  <si>
+    <t>Coding for Categorize a Ticket</t>
+  </si>
+  <si>
+    <t>Code Review for Categorize a Ticket</t>
+  </si>
+  <si>
+    <t>Testing for Categorize a Ticket</t>
+  </si>
+  <si>
+    <t>Acceptance for Categorize a Ticket</t>
+  </si>
+  <si>
+    <t>Screen Design for Filter Ticket Details</t>
+  </si>
+  <si>
+    <t>Coding for Filter Ticket Details</t>
+  </si>
+  <si>
+    <t>Code Review for Filter Ticket Details</t>
+  </si>
+  <si>
+    <t>Testing for Filter Ticket Details</t>
+  </si>
+  <si>
+    <t>Acceptance for Filter Ticket Details</t>
+  </si>
+  <si>
+    <t>Screen Design for View Assigned Tickets (Engineer)</t>
+  </si>
+  <si>
+    <t>Coding for View Assigned Tickets (Engineer)</t>
+  </si>
+  <si>
+    <t>Code Review for View Assigned Tickets (Engineer)</t>
+  </si>
+  <si>
+    <t>Testing for View Assigned Tickets (Engineer)</t>
+  </si>
+  <si>
+    <t>Acceptance for View Assigned Tickets (Engineer)</t>
+  </si>
+  <si>
+    <t>Screen Design for Update Progress</t>
+  </si>
+  <si>
+    <t>Coding for Update Progress</t>
+  </si>
+  <si>
+    <t>Code Review for Update Progress</t>
+  </si>
+  <si>
+    <t>Testing for Update Progress</t>
+  </si>
+  <si>
+    <t>Acceptance for Update Progress</t>
+  </si>
+  <si>
+    <t>Screen Design for Close a Ticket</t>
+  </si>
+  <si>
+    <t>Coding for Close a Ticket</t>
+  </si>
+  <si>
+    <t>Code Review for Close a Ticket</t>
+  </si>
+  <si>
+    <t>Testing for Close a Ticket</t>
+  </si>
+  <si>
+    <t>Acceptance for Close a Ticket</t>
+  </si>
+  <si>
+    <t>Screen Design for Put a ticket on Hold</t>
+  </si>
+  <si>
+    <t>Coding for Put a ticket on Hold</t>
+  </si>
+  <si>
+    <t>Code Review for Put a ticket on Hold</t>
+  </si>
+  <si>
+    <t>Testing for Put a ticket on Hold</t>
+  </si>
+  <si>
+    <t>Acceptance for Put a ticket on Hold</t>
+  </si>
+  <si>
+    <t>Screen Design for Cancel a Ticket</t>
+  </si>
+  <si>
+    <t>Coding for Cancel a Ticket</t>
+  </si>
+  <si>
+    <t>Code Review for Cancel a Ticket</t>
+  </si>
+  <si>
+    <t>Testing for Cancel a Ticket</t>
+  </si>
+  <si>
+    <t>Acceptance for Cancel a Ticket</t>
+  </si>
+  <si>
+    <t>Screen Design for Reopen a Ticket</t>
+  </si>
+  <si>
+    <t>Coding for Reopen a Ticket</t>
+  </si>
+  <si>
+    <t>Code Review for Reopen a Ticket</t>
+  </si>
+  <si>
+    <t>Testing for Reopen a Ticket</t>
+  </si>
+  <si>
+    <t>Acceptance for Reopen a Ticket</t>
+  </si>
+  <si>
+    <t>Screen Design for Assign / Reassign the Ticket</t>
+  </si>
+  <si>
+    <t>Coding for Assign / Reassign the Ticket</t>
+  </si>
+  <si>
+    <t>Code Review for Assign / Reassign the Ticket</t>
+  </si>
+  <si>
+    <t>Testing for Assign / Reassign the Ticket</t>
+  </si>
+  <si>
+    <t>Acceptance for Assign / Reassign the Ticket</t>
+  </si>
+  <si>
+    <t>Screen Design for Import Contact Details</t>
+  </si>
+  <si>
+    <t>Coding for Import Contact Details</t>
+  </si>
+  <si>
+    <t>Code Review for Import Contact Details</t>
+  </si>
+  <si>
+    <t>Testing for Import Contact Details</t>
+  </si>
+  <si>
+    <t>Acceptance for Import Contact Details</t>
+  </si>
+  <si>
+    <t>Screen Design for View Donor Details</t>
+  </si>
+  <si>
+    <t>Coding for View Donor Details</t>
+  </si>
+  <si>
+    <t>Code Review for View Donor Details</t>
+  </si>
+  <si>
+    <t>Testing for View Donor Details</t>
+  </si>
+  <si>
+    <t>Acceptance for View Donor Details</t>
+  </si>
+  <si>
+    <t>Screen Design for View Review from various sources</t>
+  </si>
+  <si>
+    <t>Coding for View Review from various sources</t>
+  </si>
+  <si>
+    <t>Code Review for View Review from various sources</t>
+  </si>
+  <si>
+    <t>Testing for View Review from various sources</t>
+  </si>
+  <si>
+    <t>Acceptance for View Review from various sources</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Finalize design for Service Desk</t>
+  </si>
+  <si>
+    <t>Write User stories for Service Desk Features</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>16, 17</t>
+  </si>
+  <si>
+    <t>21, 22</t>
+  </si>
+  <si>
+    <t>27, 28</t>
+  </si>
+  <si>
+    <t>Get Stock Data</t>
+  </si>
+  <si>
+    <t>34, 35</t>
+  </si>
+  <si>
+    <t>39, 40</t>
+  </si>
+  <si>
+    <t>44, 45</t>
+  </si>
+  <si>
+    <t>49, 50</t>
+  </si>
+  <si>
+    <t>56, 57</t>
+  </si>
+  <si>
+    <t>61, 62</t>
+  </si>
+  <si>
+    <t>66, 67</t>
+  </si>
+  <si>
+    <t>71, 72</t>
+  </si>
+  <si>
+    <t>77, 78</t>
+  </si>
+  <si>
+    <t>82, 83</t>
+  </si>
+  <si>
+    <t>87, 88</t>
+  </si>
+  <si>
+    <t>92, 93</t>
+  </si>
+  <si>
+    <t>97, 98</t>
+  </si>
+  <si>
+    <t>99, 100</t>
+  </si>
+  <si>
+    <t>104, 105</t>
+  </si>
+  <si>
+    <t>109, 110</t>
+  </si>
+  <si>
+    <t>114, 115</t>
+  </si>
+  <si>
+    <t>119, 120</t>
+  </si>
+  <si>
+    <t>124, 125</t>
+  </si>
+  <si>
+    <t>129, 130</t>
+  </si>
+  <si>
+    <t>134, 135</t>
+  </si>
+  <si>
+    <t>139, 140</t>
+  </si>
+  <si>
+    <t>144, 145</t>
+  </si>
+  <si>
+    <t>149, 150</t>
+  </si>
+  <si>
+    <t>154, 155</t>
+  </si>
+  <si>
+    <t>159, 160</t>
+  </si>
+  <si>
+    <t>Started On</t>
+  </si>
+  <si>
+    <t>Completed On</t>
+  </si>
+  <si>
+    <t>Update invoice data in current IT IMS &amp; Clean up</t>
+  </si>
+  <si>
+    <t>Nithya / JNVD</t>
+  </si>
+  <si>
+    <t>Design for Invoice</t>
+  </si>
+  <si>
+    <t>JULY 2017</t>
+  </si>
+  <si>
+    <t>AUGUST 2017</t>
+  </si>
+  <si>
+    <t>SEPTEMBER 2017</t>
   </si>
 </sst>
 </file>
@@ -478,13 +1076,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,60 +1123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -712,15 +1257,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -736,30 +1272,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -772,9 +1284,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,6 +1291,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,7 +1684,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1189,33 +1722,33 @@
       <c r="G1" s="9">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="Q1" s="17" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="19"/>
-      <c r="Y1" s="17" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="36"/>
+      <c r="Y1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="19"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="36"/>
     </row>
     <row r="2" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1774,9 +2307,36 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="I10" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="Q10" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
+      <c r="Y10" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="36"/>
     </row>
     <row r="11" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="7"/>
@@ -1785,6 +2345,69 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
+      <c r="I11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1796,6 +2419,48 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15">
+        <v>1</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" ref="T12:U16" si="11">S12+1</f>
+        <v>2</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" ref="U12:U15" si="12">T12+1</f>
+        <v>3</v>
+      </c>
+      <c r="V12" s="15">
+        <f t="shared" ref="V12:V15" si="13">U12+1</f>
+        <v>4</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" ref="W12:W15" si="14">V12+1</f>
+        <v>5</v>
+      </c>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="15">
+        <f t="shared" ref="AE12:AE15" si="15">AD12+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1807,6 +2472,90 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
+      <c r="I13" s="16">
+        <f>O12+1</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13+1</f>
+        <v>3</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" ref="K13:K16" si="16">J13+1</f>
+        <v>4</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" ref="L13:L16" si="17">K13+1</f>
+        <v>5</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" ref="M13:M16" si="18">L13+1</f>
+        <v>6</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" ref="N13:N16" si="19">M13+1</f>
+        <v>7</v>
+      </c>
+      <c r="O13" s="16">
+        <f t="shared" ref="O13:O16" si="20">N13+1</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="16">
+        <f>W12+1</f>
+        <v>6</v>
+      </c>
+      <c r="R13" s="15">
+        <f>Q13+1</f>
+        <v>7</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" ref="S13:S16" si="21">R13+1</f>
+        <v>8</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V13" s="15">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="Y13" s="16">
+        <f>AE12+1</f>
+        <v>3</v>
+      </c>
+      <c r="Z13" s="15">
+        <f>Y13+1</f>
+        <v>4</v>
+      </c>
+      <c r="AA13" s="15">
+        <f t="shared" ref="AA13:AA16" si="22">Z13+1</f>
+        <v>5</v>
+      </c>
+      <c r="AB13" s="15">
+        <f t="shared" ref="AB13:AB16" si="23">AA13+1</f>
+        <v>6</v>
+      </c>
+      <c r="AC13" s="15">
+        <f t="shared" ref="AC13:AC16" si="24">AB13+1</f>
+        <v>7</v>
+      </c>
+      <c r="AD13" s="15">
+        <f t="shared" ref="AD13:AE16" si="25">AC13+1</f>
+        <v>8</v>
+      </c>
+      <c r="AE13" s="16">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1818,6 +2567,90 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
+      <c r="I14" s="16">
+        <f>O13+1</f>
+        <v>9</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14+1</f>
+        <v>10</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="Q14" s="16">
+        <f>W13+1</f>
+        <v>13</v>
+      </c>
+      <c r="R14" s="15">
+        <f>Q14+1</f>
+        <v>14</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="V14" s="15">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="W14" s="15">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="Y14" s="16">
+        <f>AE13+1</f>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="15">
+        <f>Y14+1</f>
+        <v>11</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="AD14" s="15">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="AE14" s="15">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1829,6 +2662,90 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
+      <c r="I15" s="16">
+        <f>O14+1</f>
+        <v>16</v>
+      </c>
+      <c r="J15" s="15">
+        <f>I15+1</f>
+        <v>17</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="O15" s="16">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>W14+1</f>
+        <v>20</v>
+      </c>
+      <c r="R15" s="15">
+        <f>Q15+1</f>
+        <v>21</v>
+      </c>
+      <c r="S15" s="15">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="V15" s="15">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="Y15" s="16">
+        <f>AE14+1</f>
+        <v>17</v>
+      </c>
+      <c r="Z15" s="15">
+        <f>Y15+1</f>
+        <v>18</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="AC15" s="15">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="AD15" s="15">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="AE15" s="16">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1840,8 +2757,86 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="16">
+        <f>O15+1</f>
+        <v>23</v>
+      </c>
+      <c r="J16" s="15">
+        <f>I16+1</f>
+        <v>24</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>W15+1</f>
+        <v>27</v>
+      </c>
+      <c r="R16" s="15">
+        <f>Q16+1</f>
+        <v>28</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="16">
+        <f>AE15+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z16" s="15">
+        <f>Y16+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" si="23"/>
+        <v>27</v>
+      </c>
+      <c r="AC16" s="15">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="AD16" s="15">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="AE16" s="15">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1849,12 +2844,42 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
+      <c r="I17" s="16">
+        <f>O16+1</f>
+        <v>30</v>
+      </c>
+      <c r="J17" s="15">
+        <f>I17+1</f>
+        <v>31</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Y10:AE10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2274,1508 +3299,3090 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="33"/>
-    <col min="2" max="2" width="35.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="40" customWidth="1"/>
-    <col min="5" max="10" width="4.7109375" style="40" customWidth="1"/>
-    <col min="11" max="18" width="4.7109375" style="33" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="35.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="28" customWidth="1"/>
+    <col min="5" max="10" width="4.7109375" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="25">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="25">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="25">
+        <v>3</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="25">
+        <v>3</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="25">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="25">
+        <v>2</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="25">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="25">
+        <v>2</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="25">
+        <v>2</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="25">
+        <v>2</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="25">
+        <v>2</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="25">
+        <v>2</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="25">
+        <v>2</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="25">
+        <v>3</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="25">
+        <v>2</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="25">
+        <v>2</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26">
+        <v>4</v>
+      </c>
+      <c r="F34" s="26">
+        <v>4</v>
+      </c>
+      <c r="G34" s="26">
+        <v>4</v>
+      </c>
+      <c r="H34" s="26">
+        <v>4</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26">
+        <v>4</v>
+      </c>
+      <c r="F35" s="26">
+        <v>4</v>
+      </c>
+      <c r="G35" s="26">
+        <v>4</v>
+      </c>
+      <c r="H35" s="26">
+        <v>4</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26">
+        <v>4</v>
+      </c>
+      <c r="F36" s="26">
+        <v>4</v>
+      </c>
+      <c r="G36" s="26">
+        <v>4</v>
+      </c>
+      <c r="H36" s="26">
+        <v>4</v>
+      </c>
+      <c r="I36" s="26">
+        <v>4</v>
+      </c>
+      <c r="J36" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26">
+        <v>4</v>
+      </c>
+      <c r="F37" s="26">
+        <v>4</v>
+      </c>
+      <c r="G37" s="26">
+        <v>4</v>
+      </c>
+      <c r="H37" s="26">
+        <v>4</v>
+      </c>
+      <c r="I37" s="26">
+        <v>4</v>
+      </c>
+      <c r="J37" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="36">
-        <v>3</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="36">
-        <v>3</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="36">
-        <v>3</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="36">
-        <v>3</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="36">
-        <v>2</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="36">
-        <v>3</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="36">
-        <v>5</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="36">
-        <v>2</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="36">
-        <v>2</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="36">
-        <v>2</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="36">
-        <v>2</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="36">
-        <v>2</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="36">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="36">
-        <v>1</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="36">
-        <v>1</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="36">
-        <v>1</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="36">
-        <v>2</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="36">
-        <v>2</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="36">
-        <v>2</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="36">
-        <v>2</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="36">
-        <v>2</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="36">
-        <v>2</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="36">
-        <v>2</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O24" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="36">
-        <v>2</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="36">
-        <v>2</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R26" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="36">
-        <v>2</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O27" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R27" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="36">
-        <v>2</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R28" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="36">
-        <v>2</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R29" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="36">
-        <v>2</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O30" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="P30" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q30" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="36">
-        <v>3</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="O31" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R31" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="36">
-        <v>2</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O32" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R32" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="36">
-        <v>2</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="R33" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="38">
-        <v>4</v>
-      </c>
-      <c r="F34" s="38">
-        <v>4</v>
-      </c>
-      <c r="G34" s="38">
-        <v>4</v>
-      </c>
-      <c r="H34" s="38">
-        <v>4</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38">
-        <v>2</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-    </row>
-    <row r="35" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="38">
-        <v>4</v>
-      </c>
-      <c r="F35" s="38">
-        <v>4</v>
-      </c>
-      <c r="G35" s="38">
-        <v>4</v>
-      </c>
-      <c r="H35" s="38">
-        <v>4</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="38">
-        <v>2</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="38">
-        <v>4</v>
-      </c>
-      <c r="F36" s="38">
-        <v>4</v>
-      </c>
-      <c r="G36" s="38">
-        <v>4</v>
-      </c>
-      <c r="H36" s="38">
-        <v>4</v>
-      </c>
-      <c r="I36" s="38">
-        <v>4</v>
-      </c>
-      <c r="J36" s="38">
-        <v>4</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-    </row>
-    <row r="37" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="38">
-        <v>4</v>
-      </c>
-      <c r="F37" s="38">
-        <v>4</v>
-      </c>
-      <c r="G37" s="38">
-        <v>4</v>
-      </c>
-      <c r="H37" s="38">
-        <v>4</v>
-      </c>
-      <c r="I37" s="38">
-        <v>4</v>
-      </c>
-      <c r="J37" s="38">
-        <v>4</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-    </row>
-    <row r="38" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34">
+      <c r="C38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23">
         <f>SUM(E2:E37)</f>
         <v>16</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="23">
         <f t="shared" ref="F38:J38" si="0">SUM(F2:F37)</f>
         <v>16</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-    </row>
-    <row r="39" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36">
+    </row>
+    <row r="39" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25">
         <v>132</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="25">
         <v>140</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="25">
         <v>140</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="25">
         <v>98</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="25">
         <v>140</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="25">
         <v>132</v>
       </c>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="28">
+        <f>SUM(D2:D39)</f>
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F167"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="33">
+        <v>42828</v>
+      </c>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="33">
+        <v>42828</v>
+      </c>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="33">
+        <v>42828</v>
+      </c>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="33">
+        <v>42829</v>
+      </c>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="33">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="33">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="32">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="32">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="32">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="32">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="32">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="32">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="32">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="32">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="33">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="33">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="33">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" s="33">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" s="32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="32">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="32">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="32">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="32">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" s="32">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" s="32">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="32">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" s="32">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="32">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D138" s="32">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" s="32">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D142" s="32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D143" s="32">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="32">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D147" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D148" s="32">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="32">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D153" s="32">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154" s="32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D157" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D158" s="32">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D159" s="32">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D163" s="32">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D164" s="32">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E165" s="33">
+        <v>42829</v>
+      </c>
+      <c r="F165" s="33"/>
+    </row>
+    <row r="166" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>162</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>163</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E167" s="33">
+        <v>42835</v>
+      </c>
+      <c r="F167" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F167">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AB"/>
+        <filter val="ALL"/>
+        <filter val="AN"/>
+        <filter val="BK"/>
+        <filter val="GP"/>
+        <filter val="KG"/>
+        <filter val="SS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A1:C165">
+    <sortCondition ref="A1:A165"/>
+  </sortState>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>